--- a/Part04 - 업무자동화 프로젝트/Ch01 - 엑셀 주간업무계획표 양식 자동화/excel_form_automation/주간업무계획표.xlsx
+++ b/Part04 - 업무자동화 프로젝트/Ch01 - 엑셀 주간업무계획표 양식 자동화/excel_form_automation/주간업무계획표.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="B2:F6"/>
+  <dimension ref="A2:F39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -459,6 +459,117 @@
         </is>
       </c>
     </row>
+    <row r="8">
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>날짜</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>요일</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>시간</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>일정</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>비고</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>2024-03-11</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Monday</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>2024-03-12</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Tuesday</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>2024-03-13</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Wednesday</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>2024-03-14</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Thursday</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>2024-03-15</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Friday</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>2024-03-16</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>Saturday</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>2024-03-17</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>Sunday</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="B6:F6"/>

--- a/Part04 - 업무자동화 프로젝트/Ch01 - 엑셀 주간업무계획표 양식 자동화/excel_form_automation/주간업무계획표.xlsx
+++ b/Part04 - 업무자동화 프로젝트/Ch01 - 엑셀 주간업무계획표 양식 자동화/excel_form_automation/주간업무계획표.xlsx
@@ -17,7 +17,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="3">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -25,16 +25,30 @@
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <name val="맑은 고딕"/>
+      <b val="1"/>
+    </font>
+    <font>
+      <name val="맑은 고딕"/>
+      <b val="1"/>
+      <sz val="28"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00cccccc"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -42,12 +56,32 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -413,167 +447,413 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:F39"/>
+  <dimension ref="B2:F43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="5" customWidth="1" min="1" max="1"/>
+    <col width="15" customWidth="1" min="2" max="2"/>
+    <col width="15" customWidth="1" min="3" max="3"/>
+    <col width="15" customWidth="1" min="4" max="4"/>
+    <col width="40" customWidth="1" min="5" max="5"/>
+    <col width="15" customWidth="1" min="6" max="6"/>
+  </cols>
   <sheetData>
     <row r="2">
-      <c r="B2" t="inlineStr">
+      <c r="B2" s="1" t="inlineStr">
         <is>
           <t>담당자</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="C2" s="2" t="inlineStr">
         <is>
           <t>크리드</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="B3" t="inlineStr">
+      <c r="B3" s="1" t="inlineStr">
         <is>
           <t>시작일</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="C3" s="2" t="inlineStr">
         <is>
           <t>2024-03-11</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="B5" t="inlineStr">
+      <c r="B5" s="3" t="inlineStr">
         <is>
           <t>주간업무계획표</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="B6" t="inlineStr">
+      <c r="B6" s="4" t="inlineStr">
         <is>
           <t>(2024-03-11 ~ 2024-03-17)</t>
         </is>
       </c>
     </row>
     <row r="8">
-      <c r="B8" t="inlineStr">
+      <c r="B8" s="5" t="inlineStr">
         <is>
           <t>날짜</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="C8" s="5" t="inlineStr">
         <is>
           <t>요일</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="D8" s="5" t="inlineStr">
         <is>
           <t>시간</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="E8" s="5" t="inlineStr">
         <is>
           <t>일정</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" s="5" t="inlineStr">
         <is>
           <t>비고</t>
         </is>
       </c>
     </row>
     <row r="9">
-      <c r="B9" t="inlineStr">
+      <c r="B9" s="6" t="inlineStr">
         <is>
           <t>2024-03-11</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="C9" s="6" t="inlineStr">
         <is>
           <t>Monday</t>
         </is>
       </c>
+      <c r="D9" s="2" t="n"/>
+      <c r="E9" s="2" t="n"/>
+      <c r="F9" s="2" t="n"/>
+    </row>
+    <row r="10">
+      <c r="B10" s="2" t="n"/>
+      <c r="C10" s="2" t="n"/>
+      <c r="D10" s="2" t="n"/>
+      <c r="E10" s="2" t="n"/>
+      <c r="F10" s="2" t="n"/>
+    </row>
+    <row r="11">
+      <c r="B11" s="2" t="n"/>
+      <c r="C11" s="2" t="n"/>
+      <c r="D11" s="2" t="n"/>
+      <c r="E11" s="2" t="n"/>
+      <c r="F11" s="2" t="n"/>
+    </row>
+    <row r="12">
+      <c r="B12" s="2" t="n"/>
+      <c r="C12" s="2" t="n"/>
+      <c r="D12" s="2" t="n"/>
+      <c r="E12" s="2" t="n"/>
+      <c r="F12" s="2" t="n"/>
+    </row>
+    <row r="13">
+      <c r="B13" s="2" t="n"/>
+      <c r="C13" s="2" t="n"/>
+      <c r="D13" s="2" t="n"/>
+      <c r="E13" s="2" t="n"/>
+      <c r="F13" s="2" t="n"/>
     </row>
     <row r="14">
-      <c r="B14" t="inlineStr">
+      <c r="B14" s="6" t="inlineStr">
         <is>
           <t>2024-03-12</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="C14" s="6" t="inlineStr">
         <is>
           <t>Tuesday</t>
         </is>
       </c>
+      <c r="D14" s="2" t="n"/>
+      <c r="E14" s="2" t="n"/>
+      <c r="F14" s="2" t="n"/>
+    </row>
+    <row r="15">
+      <c r="B15" s="2" t="n"/>
+      <c r="C15" s="2" t="n"/>
+      <c r="D15" s="2" t="n"/>
+      <c r="E15" s="2" t="n"/>
+      <c r="F15" s="2" t="n"/>
+    </row>
+    <row r="16">
+      <c r="B16" s="2" t="n"/>
+      <c r="C16" s="2" t="n"/>
+      <c r="D16" s="2" t="n"/>
+      <c r="E16" s="2" t="n"/>
+      <c r="F16" s="2" t="n"/>
+    </row>
+    <row r="17">
+      <c r="B17" s="2" t="n"/>
+      <c r="C17" s="2" t="n"/>
+      <c r="D17" s="2" t="n"/>
+      <c r="E17" s="2" t="n"/>
+      <c r="F17" s="2" t="n"/>
+    </row>
+    <row r="18">
+      <c r="B18" s="2" t="n"/>
+      <c r="C18" s="2" t="n"/>
+      <c r="D18" s="2" t="n"/>
+      <c r="E18" s="2" t="n"/>
+      <c r="F18" s="2" t="n"/>
     </row>
     <row r="19">
-      <c r="B19" t="inlineStr">
+      <c r="B19" s="6" t="inlineStr">
         <is>
           <t>2024-03-13</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
+      <c r="C19" s="6" t="inlineStr">
         <is>
           <t>Wednesday</t>
         </is>
       </c>
+      <c r="D19" s="2" t="n"/>
+      <c r="E19" s="2" t="n"/>
+      <c r="F19" s="2" t="n"/>
+    </row>
+    <row r="20">
+      <c r="B20" s="2" t="n"/>
+      <c r="C20" s="2" t="n"/>
+      <c r="D20" s="2" t="n"/>
+      <c r="E20" s="2" t="n"/>
+      <c r="F20" s="2" t="n"/>
+    </row>
+    <row r="21">
+      <c r="B21" s="2" t="n"/>
+      <c r="C21" s="2" t="n"/>
+      <c r="D21" s="2" t="n"/>
+      <c r="E21" s="2" t="n"/>
+      <c r="F21" s="2" t="n"/>
+    </row>
+    <row r="22">
+      <c r="B22" s="2" t="n"/>
+      <c r="C22" s="2" t="n"/>
+      <c r="D22" s="2" t="n"/>
+      <c r="E22" s="2" t="n"/>
+      <c r="F22" s="2" t="n"/>
+    </row>
+    <row r="23">
+      <c r="B23" s="2" t="n"/>
+      <c r="C23" s="2" t="n"/>
+      <c r="D23" s="2" t="n"/>
+      <c r="E23" s="2" t="n"/>
+      <c r="F23" s="2" t="n"/>
     </row>
     <row r="24">
-      <c r="B24" t="inlineStr">
+      <c r="B24" s="6" t="inlineStr">
         <is>
           <t>2024-03-14</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
+      <c r="C24" s="6" t="inlineStr">
         <is>
           <t>Thursday</t>
         </is>
       </c>
+      <c r="D24" s="2" t="n"/>
+      <c r="E24" s="2" t="n"/>
+      <c r="F24" s="2" t="n"/>
+    </row>
+    <row r="25">
+      <c r="B25" s="2" t="n"/>
+      <c r="C25" s="2" t="n"/>
+      <c r="D25" s="2" t="n"/>
+      <c r="E25" s="2" t="n"/>
+      <c r="F25" s="2" t="n"/>
+    </row>
+    <row r="26">
+      <c r="B26" s="2" t="n"/>
+      <c r="C26" s="2" t="n"/>
+      <c r="D26" s="2" t="n"/>
+      <c r="E26" s="2" t="n"/>
+      <c r="F26" s="2" t="n"/>
+    </row>
+    <row r="27">
+      <c r="B27" s="2" t="n"/>
+      <c r="C27" s="2" t="n"/>
+      <c r="D27" s="2" t="n"/>
+      <c r="E27" s="2" t="n"/>
+      <c r="F27" s="2" t="n"/>
+    </row>
+    <row r="28">
+      <c r="B28" s="2" t="n"/>
+      <c r="C28" s="2" t="n"/>
+      <c r="D28" s="2" t="n"/>
+      <c r="E28" s="2" t="n"/>
+      <c r="F28" s="2" t="n"/>
     </row>
     <row r="29">
-      <c r="B29" t="inlineStr">
+      <c r="B29" s="6" t="inlineStr">
         <is>
           <t>2024-03-15</t>
         </is>
       </c>
-      <c r="C29" t="inlineStr">
+      <c r="C29" s="6" t="inlineStr">
         <is>
           <t>Friday</t>
         </is>
       </c>
+      <c r="D29" s="2" t="n"/>
+      <c r="E29" s="2" t="n"/>
+      <c r="F29" s="2" t="n"/>
+    </row>
+    <row r="30">
+      <c r="B30" s="2" t="n"/>
+      <c r="C30" s="2" t="n"/>
+      <c r="D30" s="2" t="n"/>
+      <c r="E30" s="2" t="n"/>
+      <c r="F30" s="2" t="n"/>
+    </row>
+    <row r="31">
+      <c r="B31" s="2" t="n"/>
+      <c r="C31" s="2" t="n"/>
+      <c r="D31" s="2" t="n"/>
+      <c r="E31" s="2" t="n"/>
+      <c r="F31" s="2" t="n"/>
+    </row>
+    <row r="32">
+      <c r="B32" s="2" t="n"/>
+      <c r="C32" s="2" t="n"/>
+      <c r="D32" s="2" t="n"/>
+      <c r="E32" s="2" t="n"/>
+      <c r="F32" s="2" t="n"/>
+    </row>
+    <row r="33">
+      <c r="B33" s="2" t="n"/>
+      <c r="C33" s="2" t="n"/>
+      <c r="D33" s="2" t="n"/>
+      <c r="E33" s="2" t="n"/>
+      <c r="F33" s="2" t="n"/>
     </row>
     <row r="34">
-      <c r="B34" t="inlineStr">
+      <c r="B34" s="6" t="inlineStr">
         <is>
           <t>2024-03-16</t>
         </is>
       </c>
-      <c r="C34" t="inlineStr">
+      <c r="C34" s="6" t="inlineStr">
         <is>
           <t>Saturday</t>
         </is>
       </c>
+      <c r="D34" s="2" t="n"/>
+      <c r="E34" s="2" t="n"/>
+      <c r="F34" s="2" t="n"/>
+    </row>
+    <row r="35">
+      <c r="B35" s="2" t="n"/>
+      <c r="C35" s="2" t="n"/>
+      <c r="D35" s="2" t="n"/>
+      <c r="E35" s="2" t="n"/>
+      <c r="F35" s="2" t="n"/>
+    </row>
+    <row r="36">
+      <c r="B36" s="2" t="n"/>
+      <c r="C36" s="2" t="n"/>
+      <c r="D36" s="2" t="n"/>
+      <c r="E36" s="2" t="n"/>
+      <c r="F36" s="2" t="n"/>
+    </row>
+    <row r="37">
+      <c r="B37" s="2" t="n"/>
+      <c r="C37" s="2" t="n"/>
+      <c r="D37" s="2" t="n"/>
+      <c r="E37" s="2" t="n"/>
+      <c r="F37" s="2" t="n"/>
+    </row>
+    <row r="38">
+      <c r="B38" s="2" t="n"/>
+      <c r="C38" s="2" t="n"/>
+      <c r="D38" s="2" t="n"/>
+      <c r="E38" s="2" t="n"/>
+      <c r="F38" s="2" t="n"/>
     </row>
     <row r="39">
-      <c r="B39" t="inlineStr">
+      <c r="B39" s="6" t="inlineStr">
         <is>
           <t>2024-03-17</t>
         </is>
       </c>
-      <c r="C39" t="inlineStr">
+      <c r="C39" s="6" t="inlineStr">
         <is>
           <t>Sunday</t>
         </is>
       </c>
+      <c r="D39" s="2" t="n"/>
+      <c r="E39" s="2" t="n"/>
+      <c r="F39" s="2" t="n"/>
+    </row>
+    <row r="40">
+      <c r="B40" s="2" t="n"/>
+      <c r="C40" s="2" t="n"/>
+      <c r="D40" s="2" t="n"/>
+      <c r="E40" s="2" t="n"/>
+      <c r="F40" s="2" t="n"/>
+    </row>
+    <row r="41">
+      <c r="B41" s="2" t="n"/>
+      <c r="C41" s="2" t="n"/>
+      <c r="D41" s="2" t="n"/>
+      <c r="E41" s="2" t="n"/>
+      <c r="F41" s="2" t="n"/>
+    </row>
+    <row r="42">
+      <c r="B42" s="2" t="n"/>
+      <c r="C42" s="2" t="n"/>
+      <c r="D42" s="2" t="n"/>
+      <c r="E42" s="2" t="n"/>
+      <c r="F42" s="2" t="n"/>
+    </row>
+    <row r="43">
+      <c r="B43" s="2" t="n"/>
+      <c r="C43" s="2" t="n"/>
+      <c r="D43" s="2" t="n"/>
+      <c r="E43" s="2" t="n"/>
+      <c r="F43" s="2" t="n"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="23">
+    <mergeCell ref="C9:C13"/>
+    <mergeCell ref="B29:B33"/>
+    <mergeCell ref="B9:B13"/>
+    <mergeCell ref="B34:B38"/>
+    <mergeCell ref="B19:B23"/>
+    <mergeCell ref="C39:C43"/>
+    <mergeCell ref="F14:F18"/>
+    <mergeCell ref="F9:F13"/>
+    <mergeCell ref="F39:F43"/>
+    <mergeCell ref="B24:B28"/>
+    <mergeCell ref="C19:C23"/>
+    <mergeCell ref="F29:F33"/>
+    <mergeCell ref="C34:C38"/>
+    <mergeCell ref="F19:F23"/>
+    <mergeCell ref="C24:C28"/>
+    <mergeCell ref="F34:F38"/>
+    <mergeCell ref="C14:C18"/>
+    <mergeCell ref="B14:B18"/>
     <mergeCell ref="B6:F6"/>
+    <mergeCell ref="C29:C33"/>
     <mergeCell ref="B5:F5"/>
+    <mergeCell ref="F24:F28"/>
+    <mergeCell ref="B39:B43"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
